--- a/TestProject1/ColumnWithIntNotNull.xlsx
+++ b/TestProject1/ColumnWithIntNotNull.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CMI\BackEnd\TestProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8D3A44-A455-48A8-880A-BCD55383E1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A040E46-BAB0-475F-A565-425F2045F1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Column1</t>
+    <t>ستون اول</t>
   </si>
   <si>
-    <t>Column2</t>
+    <t>ستون دوم</t>
   </si>
   <si>
-    <t>Column3</t>
+    <t>ستون سوم</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
